--- a/data/trans_dic/DC-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/DC-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1950308360586661</v>
+        <v>0.1944914527594487</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09456195099511605</v>
+        <v>0.09401554183909502</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.09744706550012817</v>
+        <v>0.09708151148310491</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2738397152561683</v>
+        <v>0.2736537875255302</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2724247059321299</v>
+        <v>0.2737005524450394</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2334763519226146</v>
+        <v>0.2300222723953813</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1899391043231415</v>
+        <v>0.1886004031318471</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4422874088678468</v>
+        <v>0.4415693240965901</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2525415667404424</v>
+        <v>0.253046556297048</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1703561242780307</v>
+        <v>0.1717279302590972</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.152564529242825</v>
+        <v>0.1518187936464565</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3775645024501375</v>
+        <v>0.378684565123641</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2607153191796354</v>
+        <v>0.260260289536265</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1334189490767546</v>
+        <v>0.1357703742411957</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1356634690413976</v>
+        <v>0.1383634100349556</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3624724969471886</v>
+        <v>0.3619981574034017</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3352882841753623</v>
+        <v>0.3340403116274283</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2855989287213839</v>
+        <v>0.2839470558432824</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2376200484603696</v>
+        <v>0.2355932199722574</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.514261870352126</v>
+        <v>0.5139945387122665</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2999494197055356</v>
+        <v>0.2999354848289021</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2046038144158982</v>
+        <v>0.2068334514638118</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1839697881455956</v>
+        <v>0.1843438916365136</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4329401359143079</v>
+        <v>0.4350078600002765</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.1895055564028967</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.3759777874313758</v>
+        <v>0.3759777874313757</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.2363924648000228</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1569254933946785</v>
+        <v>0.1571559423056087</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08733917352296219</v>
+        <v>0.0864261263649047</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0799586669987849</v>
+        <v>0.07894066096127811</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.190216319824705</v>
+        <v>0.1878811570832491</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2660217847146216</v>
+        <v>0.270685149201697</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.227837037143168</v>
+        <v>0.228414027034399</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1658942741469541</v>
+        <v>0.1649862552322169</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3514006453118541</v>
+        <v>0.351378469439668</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2190918158755176</v>
+        <v>0.2177795031317004</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1656113968486004</v>
+        <v>0.1668745226151068</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1303168647057366</v>
+        <v>0.1304511882054241</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2837325164338245</v>
+        <v>0.2826851101407597</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.203085931534929</v>
+        <v>0.2036029052197418</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1271211350306261</v>
+        <v>0.1272443784960097</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1197193167090324</v>
+        <v>0.1182334471806767</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2416947217778197</v>
+        <v>0.2413285684984961</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3227838993189832</v>
+        <v>0.325779346289008</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2806401788315088</v>
+        <v>0.2815348955244378</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2181625864718946</v>
+        <v>0.2157382290946234</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4019856365103543</v>
+        <v>0.4032773075128081</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2545990004221164</v>
+        <v>0.2556344987757806</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2000475758091746</v>
+        <v>0.2012295193665803</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1650583169511999</v>
+        <v>0.1617824899119454</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3197817525055777</v>
+        <v>0.3211031785100558</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.07182408253827907</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1711576388239417</v>
+        <v>0.1711576388239418</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2261976601593573</v>
@@ -957,7 +957,7 @@
         <v>0.1381794891231085</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.3467378027328926</v>
+        <v>0.3467378027328927</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1810814602225291</v>
@@ -969,7 +969,7 @@
         <v>0.1039054320314985</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2589964493115557</v>
+        <v>0.2589964493115558</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1213308349956675</v>
+        <v>0.1214821246917888</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08281807517506558</v>
+        <v>0.08137739603672159</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05488475905523042</v>
+        <v>0.05298192148641694</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1489219304278286</v>
+        <v>0.1500626095438141</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2017662588292054</v>
+        <v>0.2005896940480475</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1776043197334407</v>
+        <v>0.1798959736960838</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1145161451741035</v>
+        <v>0.1146762911359563</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3225942170114928</v>
+        <v>0.3227524421598094</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1657753040208403</v>
+        <v>0.1641939179608204</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.136593537070374</v>
+        <v>0.1358291384993803</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.08965021644361607</v>
+        <v>0.08981659356621007</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2385605318184348</v>
+        <v>0.2404521080567789</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1621046975653825</v>
+        <v>0.1627281868290822</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1222236054308588</v>
+        <v>0.123781899570274</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09102852633687948</v>
+        <v>0.09187444069177907</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.19900106819556</v>
+        <v>0.1978532040350802</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2524012989110386</v>
+        <v>0.2534112648990094</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2315617042212036</v>
+        <v>0.2375062054441897</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1654913032619447</v>
+        <v>0.1686053091632976</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3723878121105269</v>
+        <v>0.3731705308809236</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1984055745925155</v>
+        <v>0.1985454729255278</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1700815295202128</v>
+        <v>0.1718500793632594</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1222069395624426</v>
+        <v>0.1232027999949826</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2772271190085147</v>
+        <v>0.2763671515977358</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1373200314425893</v>
+        <v>0.1396065482087967</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06551016200248229</v>
+        <v>0.06451069437873412</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05724345010137794</v>
+        <v>0.05753874958609352</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1812934297728919</v>
+        <v>0.1851014439741448</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2637919982844554</v>
+        <v>0.2625975303620947</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1697907678564012</v>
+        <v>0.1690640277009551</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1305300331690763</v>
+        <v>0.1306212426025906</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3591880958493161</v>
+        <v>0.3603459644670511</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2051998871674224</v>
+        <v>0.2035450501286243</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1215958836013713</v>
+        <v>0.1209581308777084</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1021568303264729</v>
+        <v>0.1016391047740794</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.275894811061357</v>
+        <v>0.2745172291785627</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2121374175860885</v>
+        <v>0.2122717303058818</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1172690169062135</v>
+        <v>0.1173545290059865</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1103994463004515</v>
+        <v>0.1066085560934323</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2345136332655594</v>
+        <v>0.2375767316229544</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3598183619751599</v>
+        <v>0.3605728103407012</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2489652367374328</v>
+        <v>0.2510659936554042</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2003226527852569</v>
+        <v>0.2026042684393893</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.420752540388399</v>
+        <v>0.418566869738544</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.264227592338605</v>
+        <v>0.2635473746557373</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1677824755818075</v>
+        <v>0.1693299723335799</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1474479937937346</v>
+        <v>0.1431719015056661</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3184256001800268</v>
+        <v>0.3144616128784625</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.161434525776594</v>
+        <v>0.1610298053145051</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.09404133940447398</v>
+        <v>0.09404813136081133</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08563977586889551</v>
+        <v>0.08513238122529983</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2027607090336286</v>
+        <v>0.2011847371446285</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2619162188237191</v>
+        <v>0.2617676072854739</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2224072616172189</v>
+        <v>0.2244501813358664</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1696913376984774</v>
+        <v>0.1701864492561549</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3734629036580765</v>
+        <v>0.3729685904489375</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2170554967481092</v>
+        <v>0.2160110114477404</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1618271745315938</v>
+        <v>0.1627720533136717</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1310728054238395</v>
+        <v>0.1317307808357081</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2927650099607698</v>
+        <v>0.2946587847110396</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1884715042791409</v>
+        <v>0.1874167170674384</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1156801573358178</v>
+        <v>0.1154890375603069</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.105341488814768</v>
+        <v>0.1052966959500263</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2301933523994346</v>
+        <v>0.2316207747239092</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2922515798859512</v>
+        <v>0.2945315628322742</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2514753823828496</v>
+        <v>0.2524638348939772</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1972738261329617</v>
+        <v>0.1960915433196841</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4016351615782175</v>
+        <v>0.4010146981571837</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2376978511594039</v>
+        <v>0.236376742531578</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1818299221739298</v>
+        <v>0.1803855980305168</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1490308134823446</v>
+        <v>0.1492208461325207</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.313692368112741</v>
+        <v>0.3149101299986485</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>113926</v>
+        <v>113610</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>98717</v>
+        <v>98146</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>109920</v>
+        <v>109508</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>136575</v>
+        <v>136482</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>251266</v>
+        <v>252443</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>261477</v>
+        <v>257608</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>239240</v>
+        <v>237554</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>275802</v>
+        <v>275354</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>380447</v>
+        <v>381208</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>368627</v>
+        <v>371596</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>364257</v>
+        <v>362476</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>423748</v>
+        <v>425005</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>152295</v>
+        <v>152029</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>139281</v>
+        <v>141735</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>153028</v>
+        <v>156074</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>180779</v>
+        <v>180543</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>309247</v>
+        <v>308096</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>319850</v>
+        <v>318000</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>299297</v>
+        <v>296744</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>320683</v>
+        <v>320517</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>451866</v>
+        <v>451845</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>442735</v>
+        <v>447559</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>439239</v>
+        <v>440132</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>485897</v>
+        <v>488218</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>169149</v>
+        <v>169397</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>85337</v>
+        <v>84445</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>72668</v>
+        <v>71743</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>182634</v>
+        <v>180392</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>281328</v>
+        <v>286260</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>249313</v>
+        <v>249945</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>166968</v>
+        <v>166055</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>392110</v>
+        <v>392085</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>467856</v>
+        <v>465053</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>343037</v>
+        <v>345653</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>249596</v>
+        <v>249853</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>589025</v>
+        <v>586850</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>218905</v>
+        <v>219462</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>124207</v>
+        <v>124327</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>108804</v>
+        <v>107454</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>232060</v>
+        <v>231708</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>341356</v>
+        <v>344524</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>307094</v>
+        <v>308073</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>219575</v>
+        <v>217135</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>448555</v>
+        <v>449997</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>543679</v>
+        <v>545890</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>414366</v>
+        <v>416814</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>316136</v>
+        <v>309862</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>663862</v>
+        <v>666606</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>136084</v>
+        <v>136254</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>73304</v>
+        <v>72028</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>45212</v>
+        <v>43644</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>155844</v>
+        <v>157037</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>200544</v>
+        <v>199374</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>155545</v>
+        <v>157552</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>88299</v>
+        <v>88422</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>337963</v>
+        <v>338129</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>350703</v>
+        <v>347358</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>240529</v>
+        <v>239183</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>142976</v>
+        <v>143241</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>499575</v>
+        <v>503536</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>181816</v>
+        <v>182515</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>108182</v>
+        <v>109561</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>74986</v>
+        <v>75682</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>208250</v>
+        <v>207049</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>250872</v>
+        <v>251876</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>202801</v>
+        <v>208007</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>127604</v>
+        <v>130005</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>390129</v>
+        <v>390949</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>419734</v>
+        <v>420030</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>299498</v>
+        <v>302613</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>194898</v>
+        <v>196486</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>580547</v>
+        <v>578746</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>61410</v>
+        <v>62432</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>32953</v>
+        <v>32450</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>29005</v>
+        <v>29155</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>176930</v>
+        <v>180646</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>89995</v>
+        <v>89587</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>76870</v>
+        <v>76541</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>63920</v>
+        <v>63965</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>326985</v>
+        <v>328039</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>161771</v>
+        <v>160466</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>116216</v>
+        <v>115607</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>101789</v>
+        <v>101273</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>520413</v>
+        <v>517815</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>94868</v>
+        <v>94928</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>58989</v>
+        <v>59032</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>55940</v>
+        <v>54019</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>228869</v>
+        <v>231858</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>122755</v>
+        <v>123012</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>112716</v>
+        <v>113667</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>98098</v>
+        <v>99215</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>383030</v>
+        <v>381040</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>208306</v>
+        <v>207770</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>160359</v>
+        <v>161838</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>146917</v>
+        <v>142656</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>600638</v>
+        <v>593161</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>521567</v>
+        <v>520260</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>320601</v>
+        <v>320624</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>288373</v>
+        <v>286665</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>705868</v>
+        <v>700381</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>868244</v>
+        <v>867752</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>787927</v>
+        <v>795165</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>598466</v>
+        <v>600212</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1380848</v>
+        <v>1379020</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1420801</v>
+        <v>1413964</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1125001</v>
+        <v>1131570</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>903626</v>
+        <v>908162</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>2101672</v>
+        <v>2115267</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>608919</v>
+        <v>605511</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>394370</v>
+        <v>393719</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>354714</v>
+        <v>354564</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>801368</v>
+        <v>806338</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>968805</v>
+        <v>976363</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>890907</v>
+        <v>894409</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>695744</v>
+        <v>691574</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1485012</v>
+        <v>1482718</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1555922</v>
+        <v>1547274</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1264057</v>
+        <v>1254017</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1027430</v>
+        <v>1028740</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>2251904</v>
+        <v>2260646</v>
       </c>
     </row>
     <row r="24">
